--- a/RedwoodPLG/Cube Analysis.xlsx
+++ b/RedwoodPLG/Cube Analysis.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f659aa45aa830916/Fourth Year/Fall Quarter/INFO 3300/Peer Learning Group Project/Redwood-Peer-Learning-Project/RedwoodPLG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace Brockwell\OneDrive\Fourth Year\Fall Quarter\INFO 3300\Peer Learning Group Project\Redwood-Peer-Learning-Project\RedwoodPLG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="0693B4DAC125FA7DE8CAD0505C6470D26FA4837A" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{EFF61176-596D-4BE1-996C-1E0EFA3B0287}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp2CC2" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts by Region and Agent" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="380" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Grace Brockwell\AppData\Local\Temp\tmp2CC2.odc" keepAlive="1" name="localhost RedwoodCube" type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Grace Brockwell\AppData\Local\Temp\tmp2CC2.odc" keepAlive="1" name="localhost RedwoodCube" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=RedwoodCube;Data Source=localhost;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Redwood Cube" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -157,7 +158,29 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Analysis:
+      <t>Question:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Which regions are recieving the most contacts, and within that region which agents are receiving the most contacts. Using other analysis, can we determine if people are "fleeing" the area, or if the area is up and coming?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Analysis:
 </t>
     </r>
     <r>
@@ -175,7 +198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,7 +761,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Cube Analysis.xlsx]tmp2CC2!PivotTable4</c:name>
+    <c:name>[Cube Analysis.xlsx]Contacts by Region and Agent!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -876,7 +899,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp2CC2!$B$1</c:f>
+              <c:f>'Contacts by Region and Agent'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -897,7 +920,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmp2CC2!$A$2:$A$173</c:f>
+              <c:f>'Contacts by Region and Agent'!$A$2:$A$173</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="162"/>
                 <c:lvl>
@@ -1422,7 +1445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp2CC2!$B$2:$B$173</c:f>
+              <c:f>'Contacts by Region and Agent'!$B$2:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="162"/>
@@ -2724,7 +2747,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Grace Brockwell" refreshedDate="43046.451241087962" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Grace Brockwell" refreshedDate="43046.451241087962" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF7C010000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
     <cacheField name="[Dim Agent].[Agent Drill].[Last Name]" caption="Last Name" numFmtId="0" hierarchy="5" level="1">
@@ -2858,7 +2881,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="380" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B173" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -3811,11 +3834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/RedwoodPLG/Cube Analysis.xlsx
+++ b/RedwoodPLG/Cube Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace Brockwell\OneDrive\Fourth Year\Fall Quarter\INFO 3300\Peer Learning Group Project\Redwood-Peer-Learning-Project\RedwoodPLG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="0693B4DAC125FA7DE8CAD0505C6470D26FA4837A" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{EFF61176-596D-4BE1-996C-1E0EFA3B0287}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="0693B4DAC125FA7DE8CAD0505C6470D26FA4837A" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E22FB47B-CAC1-4B4B-AEC1-EAF53E9F3D9A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="12" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2747,48 +2747,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Grace Brockwell" refreshedDate="43046.451241087962" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF7C010000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Grace Brockwell" refreshedDate="43046.466457175928" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF7C010000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="9">
-    <cacheField name="[Dim Agent].[Agent Drill].[Last Name]" caption="Last Name" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="29">
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Allee]" c="Allee"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Carling]" c="Carling"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Chong]" c="Chong"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Dahlen]" c="Dahlen"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Dann]" c="Dann"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Fernandez]" c="Fernandez"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Flamenbaum]" c="Flamenbaum"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Gagnon]" c="Gagnon"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Herring]" c="Herring"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Kellogg]" c="Kellogg"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Lewis]" c="Lewis"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Marcoux]" c="Marcoux"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Okindo]" c="Okindo"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Piperova]" c="Piperova"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Reed]" c="Reed"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Robinson]" c="Robinson"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Romero]" c="Romero"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Rowe]" c="Rowe"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Schutz]" c="Schutz"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Selby]" c="Selby"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Sheibani]" c="Sheibani"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Silverburg]" c="Silverburg"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Soltwedel]" c="Soltwedel"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[St-Onge]" c="St-Onge"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Taylor]" c="Taylor"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Townsend]" c="Townsend"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Voss]" c="Voss"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Weber]" c="Weber"/>
-        <s v="[Dim Agent].[Agent Drill].[Last Name].&amp;[Williams]" c="Williams"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Agent].[Agent Drill].[Agent SK]" caption="Agent SK" numFmtId="0" hierarchy="5" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Dim Agent].[Agent Drill].[Agent SK].[Last Name]" caption="Last Name" propertyName="Last Name" numFmtId="0" hierarchy="5" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
+  <cacheFields count="7">
     <cacheField name="[Dim Property].[Property City Hierarchy].[City]" caption="City" numFmtId="0" hierarchy="12" level="1">
       <sharedItems count="9">
         <s v="[Dim Property].[Property City Hierarchy].[City].&amp;[Arcata]" c="Arcata"/>
@@ -2815,6 +2776,39 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Measures].[Fact Contacts Count]" caption="Fact Contacts Count" numFmtId="0" hierarchy="15" level="32767"/>
+    <cacheField name="[Dim Agent].[Last Name].[Last Name]" caption="Last Name" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems count="29">
+        <s v="[Dim Agent].[Last Name].&amp;[Allee]" c="Allee"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Carling]" c="Carling"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Chong]" c="Chong"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Dahlen]" c="Dahlen"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Dann]" c="Dann"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Fernandez]" c="Fernandez"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Flamenbaum]" c="Flamenbaum"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Gagnon]" c="Gagnon"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Herring]" c="Herring"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Kellogg]" c="Kellogg"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Lewis]" c="Lewis"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Marcoux]" c="Marcoux"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Okindo]" c="Okindo"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Piperova]" c="Piperova"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Reed]" c="Reed"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Robinson]" c="Robinson"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Romero]" c="Romero"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Rowe]" c="Rowe"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Schutz]" c="Schutz"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Selby]" c="Selby"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Sheibani]" c="Sheibani"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Silverburg]" c="Silverburg"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Soltwedel]" c="Soltwedel"/>
+        <s v="[Dim Agent].[Last Name].&amp;[St-Onge]" c="St-Onge"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Taylor]" c="Taylor"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Townsend]" c="Townsend"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Voss]" c="Voss"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Weber]" c="Weber"/>
+        <s v="[Dim Agent].[Last Name].&amp;[Williams]" c="Williams"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="20">
     <cacheHierarchy uniqueName="[Date].[Date]" caption="Date" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Date].[Date].[All]" allUniqueName="[Date].[Date].[All]" dimensionUniqueName="[Date]" displayFolder="" count="0" unbalanced="0"/>
@@ -2822,15 +2816,14 @@
     <cacheHierarchy uniqueName="[Date].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Date].[Month].[All]" allUniqueName="[Date].[Month].[All]" dimensionUniqueName="[Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Date].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Date].[Quarter].[All]" allUniqueName="[Date].[Quarter].[All]" dimensionUniqueName="[Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Date].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Date].[Year].[All]" allUniqueName="[Date].[Year].[All]" dimensionUniqueName="[Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Agent].[Agent Drill]" caption="Agent Drill" defaultMemberUniqueName="[Dim Agent].[Agent Drill].[All]" allUniqueName="[Dim Agent].[Agent Drill].[All]" dimensionUniqueName="[Dim Agent]" displayFolder="" count="3" unbalanced="0">
-      <fieldsUsage count="3">
+    <cacheHierarchy uniqueName="[Dim Agent].[Agent Drill]" caption="Agent Drill" defaultMemberUniqueName="[Dim Agent].[Agent Drill].[All]" allUniqueName="[Dim Agent].[Agent Drill].[All]" dimensionUniqueName="[Dim Agent]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Agent].[Agent SK]" caption="Agent SK" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Agent].[Agent SK].[All]" allUniqueName="[Dim Agent].[Agent SK].[All]" dimensionUniqueName="[Dim Agent]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Agent].[Last Name]" caption="Last Name" attribute="1" defaultMemberUniqueName="[Dim Agent].[Last Name].[All]" allUniqueName="[Dim Agent].[Last Name].[All]" dimensionUniqueName="[Dim Agent]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Agent].[Agent SK]" caption="Agent SK" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Agent].[Agent SK].[All]" allUniqueName="[Dim Agent].[Agent SK].[All]" dimensionUniqueName="[Dim Agent]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Agent].[Last Name]" caption="Last Name" attribute="1" defaultMemberUniqueName="[Dim Agent].[Last Name].[All]" allUniqueName="[Dim Agent].[Last Name].[All]" dimensionUniqueName="[Dim Agent]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Listing].[Asking Price]" caption="Asking Price" attribute="1" defaultMemberUniqueName="[Dim Listing].[Asking Price].[All]" allUniqueName="[Dim Listing].[Asking Price].[All]" dimensionUniqueName="[Dim Listing]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Listing].[Listing Hierarchy]" caption="Listing Hierarchy" defaultMemberUniqueName="[Dim Listing].[Listing Hierarchy].[All]" allUniqueName="[Dim Listing].[Listing Hierarchy].[All]" dimensionUniqueName="[Dim Listing]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Listing].[Listing SK]" caption="Listing SK" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Listing].[Listing SK].[All]" allUniqueName="[Dim Listing].[Listing SK].[All]" dimensionUniqueName="[Dim Listing]" displayFolder="" count="0" unbalanced="0"/>
@@ -2838,16 +2831,16 @@
     <cacheHierarchy uniqueName="[Dim Property].[Property City Hierarchy]" caption="Property City Hierarchy" defaultMemberUniqueName="[Dim Property].[Property City Hierarchy].[All]" allUniqueName="[Dim Property].[Property City Hierarchy].[All]" dimensionUniqueName="[Dim Property]" displayFolder="" count="4" unbalanced="0">
       <fieldsUsage count="4">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Property].[Property SK]" caption="Property SK" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Property].[Property SK].[All]" allUniqueName="[Dim Property].[Property SK].[All]" dimensionUniqueName="[Dim Property]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Property].[Zipcode]" caption="Zipcode" attribute="1" defaultMemberUniqueName="[Dim Property].[Zipcode].[All]" allUniqueName="[Dim Property].[Zipcode].[All]" dimensionUniqueName="[Dim Property]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Fact Contacts Count]" caption="Fact Contacts Count" measure="1" displayFolder="" measureGroup="Fact Contacts" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="8"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Average Contacts Per Listing]" caption="Average Contacts Per Listing" measure="1" displayFolder="" measureGroup="Fact Contacts" count="0"/>
@@ -2881,49 +2874,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B173" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="30">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
-        <item c="1" x="4"/>
-        <item c="1" x="5"/>
-        <item c="1" x="6"/>
-        <item c="1" x="7"/>
-        <item c="1" x="8"/>
-        <item c="1" x="9"/>
-        <item c="1" x="10"/>
-        <item c="1" x="11"/>
-        <item c="1" x="12"/>
-        <item c="1" x="13"/>
-        <item c="1" x="14"/>
-        <item c="1" x="15"/>
-        <item c="1" x="16"/>
-        <item c="1" x="17"/>
-        <item c="1" x="18"/>
-        <item c="1" x="19"/>
-        <item c="1" x="20"/>
-        <item c="1" x="21"/>
-        <item c="1" x="22"/>
-        <item c="1" x="23"/>
-        <item c="1" x="24"/>
-        <item c="1" x="25"/>
-        <item c="1" x="26"/>
-        <item c="1" x="27"/>
-        <item c="1" x="28"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" dataSourceSort="1" showPropTip="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="10">
         <item c="1" x="0"/>
@@ -2951,10 +2904,44 @@
     <pivotField showAll="0" dataSourceSort="1" showPropTip="1"/>
     <pivotField showAll="0" dataSourceSort="1" showPropTip="1"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="30">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="2">
-    <field x="3"/>
     <field x="0"/>
+    <field x="6"/>
   </rowFields>
   <rowItems count="172">
     <i>
@@ -3478,7 +3465,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="8" baseField="0" baseItem="0"/>
+    <dataField fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="2" series="1">
@@ -3497,11 +3484,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="1">
-        <mp field="2"/>
-      </mps>
-    </pivotHierarchy>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -3510,8 +3493,8 @@
     <pivotHierarchy/>
     <pivotHierarchy>
       <mps count="2">
-        <mp field="6"/>
-        <mp field="7"/>
+        <mp field="3"/>
+        <mp field="4"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -3525,7 +3508,7 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
     <rowHierarchyUsage hierarchyUsage="12"/>
-    <rowHierarchyUsage hierarchyUsage="5"/>
+    <rowHierarchyUsage hierarchyUsage="7"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3838,7 +3821,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
